--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H2">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>568.9020619793635</v>
+        <v>738.7052751780753</v>
       </c>
       <c r="R2">
-        <v>5120.118557814271</v>
+        <v>6648.347476602677</v>
       </c>
       <c r="S2">
-        <v>0.08577957776788628</v>
+        <v>0.09389546942075302</v>
       </c>
       <c r="T2">
-        <v>0.08577957776788628</v>
+        <v>0.09389546942075302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H3">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
-        <v>126.2356546485556</v>
+        <v>143.0969709380833</v>
       </c>
       <c r="R3">
-        <v>1136.120891837</v>
+        <v>1287.87273844275</v>
       </c>
       <c r="S3">
-        <v>0.01903392847150306</v>
+        <v>0.01818879289264614</v>
       </c>
       <c r="T3">
-        <v>0.01903392847150306</v>
+        <v>0.01818879289264614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H4">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>21.40733219036356</v>
+        <v>21.39226498540333</v>
       </c>
       <c r="R4">
-        <v>192.665989713272</v>
+        <v>192.53038486863</v>
       </c>
       <c r="S4">
-        <v>0.003227817297826699</v>
+        <v>0.002719131472688311</v>
       </c>
       <c r="T4">
-        <v>0.003227817297826698</v>
+        <v>0.002719131472688312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H5">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>9.704195372488888</v>
+        <v>10.10718865699</v>
       </c>
       <c r="R5">
-        <v>87.33775835239999</v>
+        <v>90.96469791291</v>
       </c>
       <c r="S5">
-        <v>0.001463207531245278</v>
+        <v>0.001284706168158082</v>
       </c>
       <c r="T5">
-        <v>0.001463207531245278</v>
+        <v>0.001284706168158082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H6">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>16.50788966142933</v>
+        <v>24.86348917377667</v>
       </c>
       <c r="R6">
-        <v>148.571006952864</v>
+        <v>223.77140256399</v>
       </c>
       <c r="S6">
-        <v>0.002489074833143475</v>
+        <v>0.0031603523974386</v>
       </c>
       <c r="T6">
-        <v>0.002489074833143475</v>
+        <v>0.003160352397438601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>3002.70750857563</v>
+        <v>3439.523795289052</v>
       </c>
       <c r="R7">
-        <v>27024.36757718067</v>
+        <v>30955.71415760146</v>
       </c>
       <c r="S7">
-        <v>0.4527510084071773</v>
+        <v>0.43719154606641</v>
       </c>
       <c r="T7">
-        <v>0.4527510084071773</v>
+        <v>0.4371915460664099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
         <v>666.2811991652222</v>
@@ -948,10 +948,10 @@
         <v>5996.530792487</v>
       </c>
       <c r="S8">
-        <v>0.1004624939136657</v>
+        <v>0.08468977827017633</v>
       </c>
       <c r="T8">
-        <v>0.1004624939136658</v>
+        <v>0.08468977827017633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>112.9894957366302</v>
+        <v>99.60563018138221</v>
       </c>
       <c r="R9">
-        <v>1016.905461629672</v>
+        <v>896.4506716324399</v>
       </c>
       <c r="S9">
-        <v>0.01703666041000587</v>
+        <v>0.0126606885277437</v>
       </c>
       <c r="T9">
-        <v>0.01703666041000587</v>
+        <v>0.0126606885277437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>51.21946685915555</v>
+        <v>47.06060327078666</v>
       </c>
       <c r="R10">
-        <v>460.9752017324</v>
+        <v>423.54542943708</v>
       </c>
       <c r="S10">
-        <v>0.007722918467526984</v>
+        <v>0.005981786760990885</v>
       </c>
       <c r="T10">
-        <v>0.007722918467526985</v>
+        <v>0.005981786760990885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>87.12987269662933</v>
+        <v>115.7681764577911</v>
       </c>
       <c r="R11">
-        <v>784.1688542696641</v>
+        <v>1041.91358812012</v>
       </c>
       <c r="S11">
-        <v>0.01313752259023744</v>
+        <v>0.01471508007015176</v>
       </c>
       <c r="T11">
-        <v>0.01313752259023744</v>
+        <v>0.01471508007015176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H12">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I12">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J12">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>1508.163130747158</v>
+        <v>9.137253952450555</v>
       </c>
       <c r="R12">
-        <v>13573.46817672442</v>
+        <v>82.23528557205499</v>
       </c>
       <c r="S12">
-        <v>0.2274022282683824</v>
+        <v>0.001161419551085723</v>
       </c>
       <c r="T12">
-        <v>0.2274022282683824</v>
+        <v>0.001161419551085723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H13">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I13">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J13">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>334.6515557779584</v>
+        <v>1.770006804097222</v>
       </c>
       <c r="R13">
-        <v>3011.864002001625</v>
+        <v>15.930061236875</v>
       </c>
       <c r="S13">
-        <v>0.05045907032595851</v>
+        <v>0.0002249823107173179</v>
       </c>
       <c r="T13">
-        <v>0.05045907032595851</v>
+        <v>0.0002249823107173179</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J14">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>56.75097928953235</v>
+        <v>0.2646069607972222</v>
       </c>
       <c r="R14">
-        <v>510.7588136057911</v>
+        <v>2.381462647175</v>
       </c>
       <c r="S14">
-        <v>0.008556965015090295</v>
+        <v>3.363370430793883E-05</v>
       </c>
       <c r="T14">
-        <v>0.008556965015090292</v>
+        <v>3.363370430793884E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J15">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>25.72588614538333</v>
+        <v>0.1250186679416667</v>
       </c>
       <c r="R15">
-        <v>231.53297530845</v>
+        <v>1.125168011475</v>
       </c>
       <c r="S15">
-        <v>0.003878972847413843</v>
+        <v>1.58908930356701E-05</v>
       </c>
       <c r="T15">
-        <v>0.003878972847413842</v>
+        <v>1.58908930356701E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J16">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>43.762524725588</v>
+        <v>0.3075435120861111</v>
       </c>
       <c r="R16">
-        <v>393.862722530292</v>
+        <v>2.767891608775</v>
       </c>
       <c r="S16">
-        <v>0.006598553852936805</v>
+        <v>3.909129040356621E-05</v>
       </c>
       <c r="T16">
-        <v>0.006598553852936805</v>
+        <v>3.909129040356622E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.520146</v>
+      </c>
+      <c r="H17">
+        <v>22.560438</v>
+      </c>
+      <c r="I17">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J17">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>266.9240163333333</v>
+      </c>
+      <c r="N17">
+        <v>800.7720489999999</v>
+      </c>
+      <c r="O17">
+        <v>0.7873936103073201</v>
+      </c>
+      <c r="P17">
+        <v>0.78739361030732</v>
+      </c>
+      <c r="Q17">
+        <v>2007.307573733051</v>
+      </c>
+      <c r="R17">
+        <v>18065.76816359746</v>
+      </c>
+      <c r="S17">
+        <v>0.2551451752690714</v>
+      </c>
+      <c r="T17">
+        <v>0.2551451752690714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.520146</v>
+      </c>
+      <c r="H18">
+        <v>22.560438</v>
+      </c>
+      <c r="I18">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J18">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N18">
+        <v>155.120125</v>
+      </c>
+      <c r="O18">
+        <v>0.1525285446808506</v>
+      </c>
+      <c r="P18">
+        <v>0.1525285446808506</v>
+      </c>
+      <c r="Q18">
+        <v>388.8419958460833</v>
+      </c>
+      <c r="R18">
+        <v>3499.57796261475</v>
+      </c>
+      <c r="S18">
+        <v>0.04942499120731082</v>
+      </c>
+      <c r="T18">
+        <v>0.04942499120731083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.520146</v>
+      </c>
+      <c r="H19">
+        <v>22.560438</v>
+      </c>
+      <c r="I19">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J19">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.729888333333332</v>
+      </c>
+      <c r="N19">
+        <v>23.189665</v>
+      </c>
+      <c r="O19">
+        <v>0.02280223700236483</v>
+      </c>
+      <c r="P19">
+        <v>0.02280223700236483</v>
+      </c>
+      <c r="Q19">
+        <v>58.12988883036332</v>
+      </c>
+      <c r="R19">
+        <v>523.1689994732699</v>
+      </c>
+      <c r="S19">
+        <v>0.007388783297624878</v>
+      </c>
+      <c r="T19">
+        <v>0.007388783297624879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.520146</v>
+      </c>
+      <c r="H20">
+        <v>22.560438</v>
+      </c>
+      <c r="I20">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J20">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.652135</v>
+      </c>
+      <c r="N20">
+        <v>10.956405</v>
+      </c>
+      <c r="O20">
+        <v>0.01077335716164485</v>
+      </c>
+      <c r="P20">
+        <v>0.01077335716164485</v>
+      </c>
+      <c r="Q20">
+        <v>27.46458841171</v>
+      </c>
+      <c r="R20">
+        <v>247.18129570539</v>
+      </c>
+      <c r="S20">
+        <v>0.003490973339460217</v>
+      </c>
+      <c r="T20">
+        <v>0.003490973339460217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.520146</v>
+      </c>
+      <c r="H21">
+        <v>22.560438</v>
+      </c>
+      <c r="I21">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J21">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.984181666666666</v>
+      </c>
+      <c r="N21">
+        <v>26.952545</v>
+      </c>
+      <c r="O21">
+        <v>0.02650225084781963</v>
+      </c>
+      <c r="P21">
+        <v>0.02650225084781963</v>
+      </c>
+      <c r="Q21">
+        <v>67.56235782385666</v>
+      </c>
+      <c r="R21">
+        <v>608.06122041471</v>
+      </c>
+      <c r="S21">
+        <v>0.008587727089825702</v>
+      </c>
+      <c r="T21">
+        <v>0.008587727089825704</v>
       </c>
     </row>
   </sheetData>
